--- a/data/tiktok_data.xlsx
+++ b/data/tiktok_data.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Joni\automation register\tt-automation-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E52FD-D831-4711-B30A-A04FDDA10D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EB9E5-FBAF-479B-972E-2F3FED20622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10188" yWindow="2952" windowWidth="11172" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="akun100" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">akun100!$A$1:$B$91</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">akun100!$A$1:$B$89</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>email</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>kodam00.</t>
-  </si>
-  <si>
-    <t>OrangeGalago@tempomail.id</t>
-  </si>
-  <si>
-    <t>MelodicCicada@tempomail.id</t>
   </si>
   <si>
     <t>StickyTuraco@tempomail.id</t>
@@ -371,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B91" totalsRowShown="0">
-  <autoFilter ref="A1:B91" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B89" totalsRowShown="0">
+  <autoFilter ref="A1:B89" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="email"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="password"/>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +695,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -797,7 +791,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -1289,23 +1283,23 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1313,7 +1307,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1321,7 +1315,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1329,7 +1323,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1331,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1345,7 +1339,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1369,7 +1363,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1371,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1379,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1393,7 +1387,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1401,28 +1395,12 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CCFA64F8-563A-459C-B8F8-27B9BC29EA50}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{47394302-D33C-4C74-A7DF-1DE26538EB9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
